--- a/scripts/bootstrap/measurement_data/integrated_culturing.xlsx
+++ b/scripts/bootstrap/measurement_data/integrated_culturing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Growth data per community" sheetId="1" state="visible" r:id="rId3"/>
@@ -603,10 +603,10 @@
     <t xml:space="preserve">butyric acid STD</t>
   </si>
   <si>
-    <t xml:space="preserve">(s)-lactic acid</t>
+    <t xml:space="preserve">(S)-lactic acid</t>
   </si>
   <si>
-    <t xml:space="preserve">(s)-lactic acid STD</t>
+    <t xml:space="preserve">(S)-lactic acid STD</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -742,10 +742,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1009,7 +1005,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C403" activeCellId="1" sqref="1:1 C403"/>
+      <selection pane="bottomRight" activeCell="C403" activeCellId="0" sqref="C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11267,12 +11263,12 @@
   </sheetPr>
   <dimension ref="A1:I633"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11289,31 +11285,31 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21176,12 +21172,12 @@
   </sheetPr>
   <dimension ref="A1:Q633"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C403" activeCellId="1" sqref="1:1 C403"/>
+      <selection pane="bottomRight" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
